--- a/P07/docs/Scrum.xlsx
+++ b/P07/docs/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2F548-9A7A-43AF-9355-DE9DF571A68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962D209-01A3-44E9-BF9F-637DD9ECEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="197">
   <si>
     <t>Product Name:</t>
   </si>
@@ -750,6 +750,30 @@
   </si>
   <si>
     <t>put icon in toolbar</t>
+  </si>
+  <si>
+    <t>create save function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create new shelter lamda </t>
+  </si>
+  <si>
+    <t>read in data in Animal class</t>
+  </si>
+  <si>
+    <t>read in data in Cat</t>
+  </si>
+  <si>
+    <t>read in data in Dog</t>
+  </si>
+  <si>
+    <t>write data to file in Animal</t>
+  </si>
+  <si>
+    <t>write data to file in Cat</t>
+  </si>
+  <si>
+    <t>write data to file in Dog</t>
   </si>
 </sst>
 </file>
@@ -2183,28 +2207,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,8 +3598,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9638,8 +9662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9744,7 +9768,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9759,11 +9783,11 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -9777,7 +9801,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -9795,11 +9819,11 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -9813,7 +9837,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9831,7 +9855,7 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -9849,7 +9873,7 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -9867,7 +9891,7 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -9976,7 +10000,7 @@
         <v>188</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9990,7 +10014,7 @@
         <v>188</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10004,7 +10028,7 @@
         <v>188</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10025,65 +10049,113 @@
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="B31" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">

--- a/P07/docs/Scrum.xlsx
+++ b/P07/docs/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1962D209-01A3-44E9-BF9F-637DD9ECEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7401995F-4C54-490C-9D5B-500AE084065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="200">
   <si>
     <t>Product Name:</t>
   </si>
@@ -774,6 +774,15 @@
   </si>
   <si>
     <t>write data to file in Dog</t>
+  </si>
+  <si>
+    <t>add Animal constructor to abstract class</t>
+  </si>
+  <si>
+    <t>add save method in Animal abstract class</t>
+  </si>
+  <si>
+    <t>In Test</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2216,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -2225,10 +2234,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,8 +3607,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -4393,7 +4402,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>75</v>
@@ -9662,7 +9671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -9768,7 +9777,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9787,7 +9796,7 @@
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -9873,11 +9882,11 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -9891,7 +9900,7 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10056,7 +10065,7 @@
         <v>189</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10078,7 +10087,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>191</v>
@@ -10092,7 +10101,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>192</v>
@@ -10106,7 +10115,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>193</v>
@@ -10120,7 +10129,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>194</v>
@@ -10134,7 +10143,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>195</v>
@@ -10148,7 +10157,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>196</v>
@@ -10161,17 +10170,29 @@
       <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="B33" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
         <v>18</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="B34" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">

--- a/P07/docs/Scrum.xlsx
+++ b/P07/docs/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7401995F-4C54-490C-9D5B-500AE084065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FEE1A-8605-4AB0-AAFF-38B28055B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="201">
   <si>
     <t>Product Name:</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Finished in Sprint 3</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>add file &gt; save to menubar</t>
   </si>
   <si>
@@ -782,7 +779,13 @@
     <t>add save method in Animal abstract class</t>
   </si>
   <si>
-    <t>In Test</t>
+    <t>tested open shelter with main window</t>
+  </si>
+  <si>
+    <t>tested save as with main window</t>
+  </si>
+  <si>
+    <t>tested file opening with main window</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1303,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,25 +2219,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3864,11 +3867,11 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="2"/>
@@ -3888,7 +3891,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3908,7 +3911,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -4402,7 +4405,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>75</v>
@@ -4433,7 +4436,7 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>75</v>
@@ -4495,7 +4498,7 @@
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>83</v>
@@ -4526,7 +4529,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>83</v>
@@ -9671,8 +9674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A23" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -9777,7 +9780,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -9792,7 +9795,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -9810,7 +9813,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -9828,7 +9831,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -9846,7 +9849,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9864,11 +9867,11 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -9882,11 +9885,11 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -9904,7 +9907,7 @@
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -9964,7 +9967,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>153</v>
@@ -9978,7 +9981,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>153</v>
@@ -9992,7 +9995,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="41" t="s">
         <v>153</v>
@@ -10006,7 +10009,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>157</v>
@@ -10020,7 +10023,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>157</v>
@@ -10034,7 +10037,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>157</v>
@@ -10048,7 +10051,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="41" t="s">
         <v>153</v>
@@ -10062,10 +10065,10 @@
         <v>74</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10076,7 +10079,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>150</v>
@@ -10090,7 +10093,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>157</v>
@@ -10104,7 +10107,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>157</v>
@@ -10118,7 +10121,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>157</v>
@@ -10132,7 +10135,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>157</v>
@@ -10146,7 +10149,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>157</v>
@@ -10160,7 +10163,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>157</v>
@@ -10174,7 +10177,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>150</v>
@@ -10188,7 +10191,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>150</v>
@@ -10198,25 +10201,43 @@
       <c r="A35">
         <v>19</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="B35" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="B36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
         <v>21</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="B37" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
